--- a/wwowowo.xlsx
+++ b/wwowowo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\gitHubLocal\dataStructuresAndAlgorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2B4A1F-46E9-4179-8A68-6F688167D46E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C258F4D3-AC97-4932-B739-933AF1C2C9A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>大是的撒</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,10 @@
   </si>
   <si>
     <t>国风大赏个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打算打算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,7 +368,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -379,6 +383,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>

--- a/wwowowo.xlsx
+++ b/wwowowo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\gitHubLocal\dataStructuresAndAlgorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2B4A1F-46E9-4179-8A68-6F688167D46E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8EE390-AB78-45D9-AE9F-280B1E650EBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>大是的撒</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,14 @@
   </si>
   <si>
     <t>国风大赏个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日体育与通用图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -361,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -379,9 +387,19 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
